--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam10-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam10-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.46095133333333</v>
+        <v>18.72828566666667</v>
       </c>
       <c r="H2">
-        <v>148.382854</v>
+        <v>56.184857</v>
       </c>
       <c r="I2">
-        <v>0.5804304915153436</v>
+        <v>0.37787211702967</v>
       </c>
       <c r="J2">
-        <v>0.5804304915153436</v>
+        <v>0.37787211702967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.003058333333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N2">
-        <v>0.009175000000000001</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P2">
-        <v>0.0001134234803787887</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q2">
-        <v>0.1512680761611111</v>
+        <v>488.7666603775344</v>
       </c>
       <c r="R2">
-        <v>1.36141268545</v>
+        <v>4398.89994339781</v>
       </c>
       <c r="S2">
-        <v>6.583444646564127E-05</v>
+        <v>0.3749268233824309</v>
       </c>
       <c r="T2">
-        <v>6.583444646564127E-05</v>
+        <v>0.3749268233824309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.46095133333333</v>
+        <v>18.72828566666667</v>
       </c>
       <c r="H3">
-        <v>148.382854</v>
+        <v>56.184857</v>
       </c>
       <c r="I3">
-        <v>0.5804304915153436</v>
+        <v>0.37787211702967</v>
       </c>
       <c r="J3">
-        <v>0.5804304915153436</v>
+        <v>0.37787211702967</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.097779</v>
+        <v>0.205015</v>
       </c>
       <c r="N3">
-        <v>78.29333699999999</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P3">
-        <v>0.9678804112271815</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q3">
-        <v>1290.820977027089</v>
+        <v>3.839579485951667</v>
       </c>
       <c r="R3">
-        <v>11617.3887932438</v>
+        <v>34.556215373565</v>
       </c>
       <c r="S3">
-        <v>0.5617873028166659</v>
+        <v>0.002945293647239065</v>
       </c>
       <c r="T3">
-        <v>0.5617873028166659</v>
+        <v>0.002945293647239065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.46095133333333</v>
+        <v>18.03569333333333</v>
       </c>
       <c r="H4">
-        <v>148.382854</v>
+        <v>54.10708</v>
       </c>
       <c r="I4">
-        <v>0.5804304915153436</v>
+        <v>0.3638979959652422</v>
       </c>
       <c r="J4">
-        <v>0.5804304915153436</v>
+        <v>0.3638979959652423</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8630093333333333</v>
+        <v>26.097779</v>
       </c>
       <c r="N4">
-        <v>2.589028</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P4">
-        <v>0.03200616529243973</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q4">
-        <v>42.68526263621244</v>
+        <v>470.6915387251066</v>
       </c>
       <c r="R4">
-        <v>384.167363725912</v>
+        <v>4236.22384852596</v>
       </c>
       <c r="S4">
-        <v>0.01857735425221212</v>
+        <v>0.361061622474167</v>
       </c>
       <c r="T4">
-        <v>0.01857735425221212</v>
+        <v>0.3610616224741671</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>54.10708</v>
       </c>
       <c r="I5">
-        <v>0.2116511321372752</v>
+        <v>0.3638979959652422</v>
       </c>
       <c r="J5">
-        <v>0.2116511321372752</v>
+        <v>0.3638979959652423</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.003058333333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N5">
-        <v>0.009175000000000001</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P5">
-        <v>0.0001134234803787887</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q5">
-        <v>0.0551591621111111</v>
+        <v>3.697587668733334</v>
       </c>
       <c r="R5">
-        <v>0.496432459</v>
+        <v>33.2782890186</v>
       </c>
       <c r="S5">
-        <v>2.400620803312065E-05</v>
+        <v>0.002836373491075288</v>
       </c>
       <c r="T5">
-        <v>2.400620803312065E-05</v>
+        <v>0.002836373491075289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.03569333333333</v>
+        <v>12.798518</v>
       </c>
       <c r="H6">
-        <v>54.10708</v>
+        <v>38.395554</v>
       </c>
       <c r="I6">
-        <v>0.2116511321372752</v>
+        <v>0.2582298870050878</v>
       </c>
       <c r="J6">
-        <v>0.2116511321372752</v>
+        <v>0.2582298870050878</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,30 +803,30 @@
         <v>26.097779</v>
       </c>
       <c r="N6">
-        <v>78.29333699999999</v>
+        <v>78.29333700000001</v>
       </c>
       <c r="O6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976035</v>
       </c>
       <c r="P6">
-        <v>0.9678804112271815</v>
+        <v>0.9922055808976036</v>
       </c>
       <c r="Q6">
-        <v>470.6915387251066</v>
+        <v>334.0128942915221</v>
       </c>
       <c r="R6">
-        <v>4236.22384852596</v>
+        <v>3006.116048623699</v>
       </c>
       <c r="S6">
-        <v>0.2048529848097245</v>
+        <v>0.2562171350410056</v>
       </c>
       <c r="T6">
-        <v>0.2048529848097245</v>
+        <v>0.2562171350410056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.03569333333333</v>
+        <v>12.798518</v>
       </c>
       <c r="H7">
-        <v>54.10708</v>
+        <v>38.395554</v>
       </c>
       <c r="I7">
-        <v>0.2116511321372752</v>
+        <v>0.2582298870050878</v>
       </c>
       <c r="J7">
-        <v>0.2116511321372752</v>
+        <v>0.2582298870050878</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8630093333333333</v>
+        <v>0.205015</v>
       </c>
       <c r="N7">
-        <v>2.589028</v>
+        <v>0.6150450000000001</v>
       </c>
       <c r="O7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="P7">
-        <v>0.03200616529243973</v>
+        <v>0.007794419102396499</v>
       </c>
       <c r="Q7">
-        <v>15.56497167980444</v>
+        <v>2.623888167770001</v>
       </c>
       <c r="R7">
-        <v>140.08474511824</v>
+        <v>23.61499350993001</v>
       </c>
       <c r="S7">
-        <v>0.006774141119517633</v>
+        <v>0.002012751964082145</v>
       </c>
       <c r="T7">
-        <v>0.006774141119517633</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>17.71760933333333</v>
-      </c>
-      <c r="H8">
-        <v>53.152828</v>
-      </c>
-      <c r="I8">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="J8">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.003058333333333333</v>
-      </c>
-      <c r="N8">
-        <v>0.009175000000000001</v>
-      </c>
-      <c r="O8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="P8">
-        <v>0.0001134234803787887</v>
-      </c>
-      <c r="Q8">
-        <v>0.05418635521111111</v>
-      </c>
-      <c r="R8">
-        <v>0.4876771969000001</v>
-      </c>
-      <c r="S8">
-        <v>2.358282588002679E-05</v>
-      </c>
-      <c r="T8">
-        <v>2.35828258800268E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>17.71760933333333</v>
-      </c>
-      <c r="H9">
-        <v>53.152828</v>
-      </c>
-      <c r="I9">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="J9">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.097779</v>
-      </c>
-      <c r="N9">
-        <v>78.29333699999999</v>
-      </c>
-      <c r="O9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="P9">
-        <v>0.9678804112271815</v>
-      </c>
-      <c r="Q9">
-        <v>462.3902527896706</v>
-      </c>
-      <c r="R9">
-        <v>4161.512275107036</v>
-      </c>
-      <c r="S9">
-        <v>0.2012401236007912</v>
-      </c>
-      <c r="T9">
-        <v>0.2012401236007912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>17.71760933333333</v>
-      </c>
-      <c r="H10">
-        <v>53.152828</v>
-      </c>
-      <c r="I10">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="J10">
-        <v>0.2079183763473812</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8630093333333333</v>
-      </c>
-      <c r="N10">
-        <v>2.589028</v>
-      </c>
-      <c r="O10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="P10">
-        <v>0.03200616529243973</v>
-      </c>
-      <c r="Q10">
-        <v>15.29046221902044</v>
-      </c>
-      <c r="R10">
-        <v>137.614159971184</v>
-      </c>
-      <c r="S10">
-        <v>0.006654669920709974</v>
-      </c>
-      <c r="T10">
-        <v>0.006654669920709974</v>
+        <v>0.002012751964082145</v>
       </c>
     </row>
   </sheetData>
